--- a/Output/BALIJA.xlsx
+++ b/Output/BALIJA.xlsx
@@ -1998,7 +1998,11 @@
       <c r="T2" t="n">
         <v>26</v>
       </c>
-      <c r="U2" t="inlineStr"/>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
@@ -2106,7 +2110,11 @@
       <c r="T4" t="n">
         <v>31</v>
       </c>
-      <c r="U4" t="inlineStr"/>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Liked</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2191,7 +2199,11 @@
       <c r="T5" t="n">
         <v>29</v>
       </c>
-      <c r="U5" t="inlineStr"/>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Match</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2272,7 +2284,11 @@
       <c r="T6" t="n">
         <v>28</v>
       </c>
-      <c r="U6" t="inlineStr"/>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2349,7 +2365,11 @@
       <c r="T7" t="n">
         <v>29</v>
       </c>
-      <c r="U7" t="inlineStr"/>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Rejected</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2560,7 +2580,11 @@
       <c r="T2" t="n">
         <v>26</v>
       </c>
-      <c r="U2" t="inlineStr"/>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
